--- a/ladder_evaluation.xlsx
+++ b/ladder_evaluation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7371\htdocs\ladder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F9A71-433B-4C71-9C82-39269C07A369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E95915D-35A3-42F4-B768-A012577DD4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA18A89C-12D1-421E-ADCD-6A2C7E4ADAFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BA18A89C-12D1-421E-ADCD-6A2C7E4ADAFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ladder" sheetId="1" r:id="rId1"/>
+    <sheet name="Interaction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -81,6 +82,33 @@
   </si>
   <si>
     <t>Here is the scope and evaluation breakup for the rest of 100 points</t>
+  </si>
+  <si>
+    <t>Choose an option from below</t>
+  </si>
+  <si>
+    <t>Graph is built. Success!</t>
+  </si>
+  <si>
+    <t>Enter the first word</t>
+  </si>
+  <si>
+    <t>Enter the second word</t>
+  </si>
+  <si>
+    <t>And here is your path</t>
+  </si>
+  <si>
+    <t>Enter the word</t>
+  </si>
+  <si>
+    <t>Enter the number of steps</t>
+  </si>
+  <si>
+    <t>Here is your HTML puzzle with the clues</t>
+  </si>
+  <si>
+    <t>Exit</t>
   </si>
 </sst>
 </file>
@@ -139,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDB59FD-3B8E-48B1-8E98-C45E05AD2B5B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,4 +771,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790CF704-72B3-4789-9E17-97F1556A850C}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>